--- a/biology/Zoologie/Darevskia_parvula/Darevskia_parvula.xlsx
+++ b/biology/Zoologie/Darevskia_parvula/Darevskia_parvula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Darevskia parvula est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darevskia parvula est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Géorgie et dans le nord-est de la Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Géorgie et dans le nord-est de la Turquie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (10 décembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (10 décembre 2012) :
 Darevskia parvula adjarica (Darevsky &amp; Eiselt, 1980)
 Darevskia parvula parvula (Lantz &amp; Cyrén, 1913)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique de cette espèce, parvula, vient du latin parvulus qui signifie « très petit »[1] et la sous-espèce est nommée en référence au lieu de sa découverte l'Adjarie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique de cette espèce, parvula, vient du latin parvulus qui signifie « très petit » et la sous-espèce est nommée en référence au lieu de sa découverte l'Adjarie.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lantz &amp; Cyrén, 1913 : Eine neue Varietät der Felseneidechse Lacerta saxicola Eversmann parvula nov. var. Mitteilungen des Kaukasischen Museums Tiflis, vol. 7, p. 163-168.
 Darevsky &amp; Eiselt, 1980 : Neue Felseneidechsen (Reptilia: Lacertidae) aus dem Kaukasus und aus der Turkei. Amphibia-Reptilia, vol. 1, p. 29-40.</t>
